--- a/database/FactoryInventories.xlsx
+++ b/database/FactoryInventories.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -29,7 +24,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -40,7 +34,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -53,7 +46,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,7 +56,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -77,7 +68,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,7 +78,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +90,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,7 +100,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +122,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,8 +132,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +151,128 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,27 +280,220 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -216,17 +763,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,22 +1075,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:E52"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
@@ -510,7 +1102,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" ht="67.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>43238</v>
       </c>
@@ -550,7 +1142,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>43245</v>
       </c>
@@ -570,7 +1162,7 @@
         <v>224.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>43252</v>
       </c>
@@ -584,13 +1176,13 @@
         <v>90.3</v>
       </c>
       <c r="E4" s="1">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="F4" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>43259</v>
       </c>
@@ -610,7 +1202,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>43266</v>
       </c>
@@ -624,13 +1216,13 @@
         <v>89.6</v>
       </c>
       <c r="E6" s="1">
-        <v>32.549999999999997</v>
+        <v>32.55</v>
       </c>
       <c r="F6" s="1">
         <v>253.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>43273</v>
       </c>
@@ -647,10 +1239,10 @@
         <v>43.7</v>
       </c>
       <c r="F7" s="1">
-        <v>278.10000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>278.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>43280</v>
       </c>
@@ -664,13 +1256,13 @@
         <v>82.8</v>
       </c>
       <c r="E8" s="1">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F8" s="1">
         <v>274.55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>43287</v>
       </c>
@@ -690,18 +1282,18 @@
         <v>274.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>43294</v>
       </c>
       <c r="B10" s="1">
-        <v>710.81500000000005</v>
+        <v>710.815</v>
       </c>
       <c r="C10" s="1">
-        <v>367.76499999999999</v>
+        <v>367.765</v>
       </c>
       <c r="D10" s="1">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="E10" s="1">
         <v>21.95</v>
@@ -710,7 +1302,7 @@
         <v>250.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>43301</v>
       </c>
@@ -730,7 +1322,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>43308</v>
       </c>
@@ -750,12 +1342,12 @@
         <v>204.65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>43315</v>
       </c>
       <c r="B13" s="1">
-        <v>641.92999999999995</v>
+        <v>641.93</v>
       </c>
       <c r="C13" s="1">
         <v>366.53</v>
@@ -770,7 +1362,7 @@
         <v>175.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>43322</v>
       </c>
@@ -790,7 +1382,7 @@
         <v>165.85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>43329</v>
       </c>
@@ -801,7 +1393,7 @@
         <v>368.8</v>
       </c>
       <c r="D15" s="1">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="E15" s="1">
         <v>21.2</v>
@@ -810,7 +1402,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>43336</v>
       </c>
@@ -830,7 +1422,7 @@
         <v>174.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>43343</v>
       </c>
@@ -850,7 +1442,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>43350</v>
       </c>
@@ -870,7 +1462,7 @@
         <v>221.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>43357</v>
       </c>
@@ -890,7 +1482,7 @@
         <v>215.52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>43364</v>
       </c>
@@ -901,7 +1493,7 @@
         <v>310.17</v>
       </c>
       <c r="D20" s="1">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="E20" s="1">
         <v>11.2</v>
@@ -910,7 +1502,7 @@
         <v>221.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>43371</v>
       </c>
@@ -921,7 +1513,7 @@
         <v>316.48</v>
       </c>
       <c r="D21" s="1">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="E21" s="1">
         <v>7.96</v>
@@ -930,12 +1522,12 @@
         <v>232.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>43385</v>
       </c>
       <c r="B22" s="1">
-        <v>545.91999999999996</v>
+        <v>545.92</v>
       </c>
       <c r="C22" s="1">
         <v>302.42</v>
@@ -950,12 +1542,12 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>43392</v>
       </c>
       <c r="B23" s="1">
-        <v>599.58000000000004</v>
+        <v>599.58</v>
       </c>
       <c r="C23" s="1">
         <v>315.06</v>
@@ -970,7 +1562,7 @@
         <v>241.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>43399</v>
       </c>
@@ -978,7 +1570,7 @@
         <v>617.29</v>
       </c>
       <c r="C24" s="1">
-        <v>319.04000000000002</v>
+        <v>319.04</v>
       </c>
       <c r="D24" s="1">
         <v>40.85</v>
@@ -990,7 +1582,7 @@
         <v>246.97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>43406</v>
       </c>
@@ -1004,18 +1596,18 @@
         <v>31.92</v>
       </c>
       <c r="E25" s="1">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="F25" s="1">
         <v>219.82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>43413</v>
       </c>
       <c r="B26" s="1">
-        <v>581.57000000000005</v>
+        <v>581.57</v>
       </c>
       <c r="C26" s="1">
         <v>318.98</v>
@@ -1024,18 +1616,18 @@
         <v>50.66</v>
       </c>
       <c r="E26" s="1">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="F26" s="1">
         <v>194.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>43420</v>
       </c>
       <c r="B27" s="1">
-        <v>562.17999999999995</v>
+        <v>562.18</v>
       </c>
       <c r="C27" s="1">
         <v>317.51</v>
@@ -1050,7 +1642,7 @@
         <v>179.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>43427</v>
       </c>
@@ -1058,7 +1650,7 @@
         <v>559.24</v>
       </c>
       <c r="C28" s="1">
-        <v>327.41000000000003</v>
+        <v>327.41</v>
       </c>
       <c r="D28" s="1">
         <v>52.9</v>
@@ -1070,7 +1662,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>43434</v>
       </c>
@@ -1084,18 +1676,18 @@
         <v>55.8</v>
       </c>
       <c r="E29" s="1">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="F29" s="1">
         <v>153.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>43441</v>
       </c>
       <c r="B30" s="1">
-        <v>608.70000000000005</v>
+        <v>608.7</v>
       </c>
       <c r="C30" s="1">
         <v>388</v>
@@ -1110,12 +1702,12 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>43448</v>
       </c>
       <c r="B31" s="1">
-        <v>637.54999999999995</v>
+        <v>637.55</v>
       </c>
       <c r="C31" s="1">
         <v>443.75</v>
@@ -1124,13 +1716,13 @@
         <v>70.2</v>
       </c>
       <c r="E31" s="1">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F31" s="1">
         <v>107.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>43455</v>
       </c>
@@ -1150,7 +1742,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>43462</v>
       </c>
@@ -1167,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>79.040000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>79.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>43469</v>
       </c>
@@ -1184,13 +1776,13 @@
         <v>97.77</v>
       </c>
       <c r="E34" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="F34" s="1">
         <v>52.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
         <v>43476</v>
       </c>
@@ -1210,7 +1802,7 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>43483</v>
       </c>
@@ -1230,7 +1822,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
         <v>43490</v>
       </c>
@@ -1250,7 +1842,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>43497</v>
       </c>
@@ -1270,7 +1862,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>43511</v>
       </c>
@@ -1284,13 +1876,13 @@
         <v>82.1</v>
       </c>
       <c r="E39" s="1">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="F39" s="1">
         <v>46.98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>43518</v>
       </c>
@@ -1298,10 +1890,10 @@
         <v>702.6</v>
       </c>
       <c r="C40" s="1">
-        <v>566.91999999999996</v>
+        <v>566.92</v>
       </c>
       <c r="D40" s="1">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="E40" s="1">
         <v>12.6</v>
@@ -1310,7 +1902,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>43525</v>
       </c>
@@ -1330,7 +1922,7 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>43532</v>
       </c>
@@ -1350,7 +1942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>43539</v>
       </c>
@@ -1370,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>43546</v>
       </c>
@@ -1378,10 +1970,10 @@
         <v>713</v>
       </c>
       <c r="C44" s="1">
-        <v>595.79999999999995</v>
+        <v>595.8</v>
       </c>
       <c r="D44" s="1">
-        <v>64.900000000000006</v>
+        <v>64.9</v>
       </c>
       <c r="E44" s="1">
         <v>16.3</v>
@@ -1390,7 +1982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>43553</v>
       </c>
@@ -1398,7 +1990,7 @@
         <v>732.65</v>
       </c>
       <c r="C45" s="1">
-        <v>608.95000000000005</v>
+        <v>608.95</v>
       </c>
       <c r="D45" s="1">
         <v>65.2</v>
@@ -1410,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>43560</v>
       </c>
@@ -1430,7 +2022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>43567</v>
       </c>
@@ -1438,7 +2030,7 @@
         <v>700.98</v>
       </c>
       <c r="C47" s="1">
-        <v>584.83000000000004</v>
+        <v>584.83</v>
       </c>
       <c r="D47" s="1">
         <v>72.75</v>
@@ -1450,7 +2042,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>43574</v>
       </c>
@@ -1458,7 +2050,7 @@
         <v>672.83</v>
       </c>
       <c r="C48" s="1">
-        <v>562.58000000000004</v>
+        <v>562.58</v>
       </c>
       <c r="D48" s="1">
         <v>73.2</v>
@@ -1470,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>43581</v>
       </c>
@@ -1490,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>43588</v>
       </c>
@@ -1510,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <f>A50+7</f>
         <v>43595</v>
@@ -1525,13 +2117,13 @@
         <v>83.15</v>
       </c>
       <c r="E51" s="1">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="F51" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <f>A51+7</f>
         <v>43602</v>
@@ -1552,9 +2144,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <f>A52+7</f>
+        <v>43609</v>
+      </c>
+      <c r="B53" s="1">
+        <v>552.2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>398.55</v>
+      </c>
+      <c r="D53" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>35.8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>35.75</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/FactoryInventories.xlsx
+++ b/database/FactoryInventories.xlsx
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,25 +155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,13 +180,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +209,28 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -238,6 +245,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -246,24 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +295,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -314,6 +314,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,25 +344,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,85 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,35 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,24 +567,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,14 +1081,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2165,6 +2165,27 @@
         <v>35.75</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <f>A53+7</f>
+        <v>43616</v>
+      </c>
+      <c r="B54" s="1">
+        <v>582.52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>370.32</v>
+      </c>
+      <c r="D54" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>75.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/FactoryInventories.xlsx
+++ b/database/FactoryInventories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,11 +133,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy/m/d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,9 +150,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,57 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,30 +241,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -270,6 +256,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -277,18 +278,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +529,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,21 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,6 +573,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +761,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,17 +1085,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
@@ -2186,6 +2190,410 @@
         <v>75.6</v>
       </c>
     </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>43622</v>
+      </c>
+      <c r="B55" s="1">
+        <v>594.92</v>
+      </c>
+      <c r="C55" s="1">
+        <v>351.52</v>
+      </c>
+      <c r="D55" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:7">
+      <c r="A56" s="4">
+        <v>43630</v>
+      </c>
+      <c r="B56" s="1">
+        <v>634.29</v>
+      </c>
+      <c r="C56" s="1">
+        <v>357.39</v>
+      </c>
+      <c r="D56" s="1">
+        <v>102.9</v>
+      </c>
+      <c r="E56" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>142.5</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4">
+        <v>43637</v>
+      </c>
+      <c r="B57" s="1">
+        <v>642.11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>358.26</v>
+      </c>
+      <c r="D57" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>38.15</v>
+      </c>
+      <c r="F57" s="1">
+        <v>151.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4">
+        <v>43644</v>
+      </c>
+      <c r="B58" s="1">
+        <v>665.04</v>
+      </c>
+      <c r="C58" s="1">
+        <v>361.76</v>
+      </c>
+      <c r="D58" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>46.38</v>
+      </c>
+      <c r="F58" s="1">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B59" s="1">
+        <v>645.95</v>
+      </c>
+      <c r="C59" s="1">
+        <v>362.83</v>
+      </c>
+      <c r="D59" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>49.32</v>
+      </c>
+      <c r="F59" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4">
+        <v>43658</v>
+      </c>
+      <c r="B60" s="1">
+        <v>645.12</v>
+      </c>
+      <c r="C60" s="1">
+        <v>372</v>
+      </c>
+      <c r="D60" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45.42</v>
+      </c>
+      <c r="F60" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B61" s="1">
+        <v>629.19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>375.17</v>
+      </c>
+      <c r="D61" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45.92</v>
+      </c>
+      <c r="F61" s="1">
+        <v>147.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
+        <v>43672</v>
+      </c>
+      <c r="B62" s="1">
+        <v>592.75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>362.93</v>
+      </c>
+      <c r="D62" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>36.12</v>
+      </c>
+      <c r="F62" s="1">
+        <v>134.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4">
+        <v>43679</v>
+      </c>
+      <c r="B63" s="1">
+        <v>569.08</v>
+      </c>
+      <c r="C63" s="1">
+        <v>353.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>31.18</v>
+      </c>
+      <c r="F63" s="1">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
+        <v>43686</v>
+      </c>
+      <c r="B64" s="1">
+        <v>551.06</v>
+      </c>
+      <c r="C64" s="1">
+        <v>363.36</v>
+      </c>
+      <c r="D64" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B65" s="1">
+        <v>550</v>
+      </c>
+      <c r="C65" s="1">
+        <v>365.15</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="E65" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>113.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4">
+        <v>43700</v>
+      </c>
+      <c r="B66" s="1">
+        <v>538.6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>367.8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4">
+        <v>43707</v>
+      </c>
+      <c r="B67" s="1">
+        <v>540.5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>360.25</v>
+      </c>
+      <c r="D67" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>36.3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>93.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4">
+        <v>43714</v>
+      </c>
+      <c r="B68" s="1">
+        <v>508.44</v>
+      </c>
+      <c r="C68" s="1">
+        <v>349.69</v>
+      </c>
+      <c r="D68" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="E68" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4">
+        <v>43721</v>
+      </c>
+      <c r="B69" s="1">
+        <v>505.76</v>
+      </c>
+      <c r="C69" s="1">
+        <v>351.21</v>
+      </c>
+      <c r="D69" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="F69" s="1">
+        <v>70.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4">
+        <v>43728</v>
+      </c>
+      <c r="B70" s="1">
+        <v>463.41</v>
+      </c>
+      <c r="C70" s="1">
+        <v>329.97</v>
+      </c>
+      <c r="D70" s="1">
+        <v>32.34</v>
+      </c>
+      <c r="E70" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="F70" s="1">
+        <f>B70-C70-D70-E70</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4">
+        <v>43735</v>
+      </c>
+      <c r="B71" s="1">
+        <v>444.69</v>
+      </c>
+      <c r="C71" s="1">
+        <v>319.43</v>
+      </c>
+      <c r="D71" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F71" s="1">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4">
+        <v>43742</v>
+      </c>
+      <c r="B72" s="1">
+        <v>417.99</v>
+      </c>
+      <c r="C72" s="1">
+        <v>289.99</v>
+      </c>
+      <c r="D72" s="1">
+        <v>30</v>
+      </c>
+      <c r="E72" s="1">
+        <v>35.2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4">
+        <f>A72+7</f>
+        <v>43749</v>
+      </c>
+      <c r="B73" s="1">
+        <v>397.65</v>
+      </c>
+      <c r="C73" s="1">
+        <v>278.95</v>
+      </c>
+      <c r="D73" s="1">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4">
+        <f>A73+7</f>
+        <v>43756</v>
+      </c>
+      <c r="B74" s="1">
+        <v>375.63</v>
+      </c>
+      <c r="C74" s="1">
+        <v>276.93</v>
+      </c>
+      <c r="D74" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/FactoryInventories.xlsx
+++ b/database/FactoryInventories.xlsx
@@ -136,8 +136,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy/m/d"/>
   </numFmts>
   <fonts count="21">
@@ -150,14 +150,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,30 +171,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,8 +208,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -232,13 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -255,39 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,25 +309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,151 +423,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,16 +533,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -566,13 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +590,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,130 +620,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,14 +1085,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2594,6 +2594,69 @@
         <v>47</v>
       </c>
     </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4">
+        <f>A74+7</f>
+        <v>43763</v>
+      </c>
+      <c r="B75" s="1">
+        <v>376.64</v>
+      </c>
+      <c r="C75" s="1">
+        <v>286.64</v>
+      </c>
+      <c r="D75" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="E75" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4">
+        <f>A75+7</f>
+        <v>43770</v>
+      </c>
+      <c r="B76" s="1">
+        <v>360.96</v>
+      </c>
+      <c r="C76" s="1">
+        <v>284.06</v>
+      </c>
+      <c r="D76" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>26</v>
+      </c>
+      <c r="F76" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4">
+        <f>A76+7</f>
+        <v>43777</v>
+      </c>
+      <c r="B77" s="1">
+        <v>342.59</v>
+      </c>
+      <c r="C77" s="1">
+        <v>282.99</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20.1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>18.4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>21.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/FactoryInventories.xlsx
+++ b/database/FactoryInventories.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,6 +29,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -34,6 +40,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -46,6 +53,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -56,6 +64,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -68,6 +77,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -78,6 +88,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,6 +101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,6 +112,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,6 +136,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,15 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy/m/d"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,349 +160,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -502,255 +196,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,65 +215,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,25 +484,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
@@ -1106,8 +510,8 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1126,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43238</v>
       </c>
@@ -1146,7 +550,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>43245</v>
       </c>
@@ -1166,7 +570,7 @@
         <v>224.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43252</v>
       </c>
@@ -1180,13 +584,13 @@
         <v>90.3</v>
       </c>
       <c r="E4" s="1">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F4" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43259</v>
       </c>
@@ -1206,7 +610,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43266</v>
       </c>
@@ -1220,13 +624,13 @@
         <v>89.6</v>
       </c>
       <c r="E6" s="1">
-        <v>32.55</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="F6" s="1">
         <v>253.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>43273</v>
       </c>
@@ -1243,10 +647,10 @@
         <v>43.7</v>
       </c>
       <c r="F7" s="1">
-        <v>278.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>278.10000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>43280</v>
       </c>
@@ -1260,13 +664,13 @@
         <v>82.8</v>
       </c>
       <c r="E8" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F8" s="1">
         <v>274.55</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>43287</v>
       </c>
@@ -1286,18 +690,18 @@
         <v>274.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>43294</v>
       </c>
       <c r="B10" s="1">
-        <v>710.815</v>
+        <v>710.81500000000005</v>
       </c>
       <c r="C10" s="1">
-        <v>367.765</v>
+        <v>367.76499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>70.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E10" s="1">
         <v>21.95</v>
@@ -1306,7 +710,7 @@
         <v>250.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>43301</v>
       </c>
@@ -1326,7 +730,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>43308</v>
       </c>
@@ -1346,12 +750,12 @@
         <v>204.65</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>43315</v>
       </c>
       <c r="B13" s="1">
-        <v>641.93</v>
+        <v>641.92999999999995</v>
       </c>
       <c r="C13" s="1">
         <v>366.53</v>
@@ -1366,7 +770,7 @@
         <v>175.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>43322</v>
       </c>
@@ -1386,7 +790,7 @@
         <v>165.85</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>43329</v>
       </c>
@@ -1397,7 +801,7 @@
         <v>368.8</v>
       </c>
       <c r="D15" s="1">
-        <v>76.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E15" s="1">
         <v>21.2</v>
@@ -1406,7 +810,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43336</v>
       </c>
@@ -1426,7 +830,7 @@
         <v>174.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>43343</v>
       </c>
@@ -1446,7 +850,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>43350</v>
       </c>
@@ -1466,7 +870,7 @@
         <v>221.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>43357</v>
       </c>
@@ -1486,7 +890,7 @@
         <v>215.52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>43364</v>
       </c>
@@ -1497,7 +901,7 @@
         <v>310.17</v>
       </c>
       <c r="D20" s="1">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E20" s="1">
         <v>11.2</v>
@@ -1506,7 +910,7 @@
         <v>221.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>43371</v>
       </c>
@@ -1517,7 +921,7 @@
         <v>316.48</v>
       </c>
       <c r="D21" s="1">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E21" s="1">
         <v>7.96</v>
@@ -1526,12 +930,12 @@
         <v>232.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>43385</v>
       </c>
       <c r="B22" s="1">
-        <v>545.92</v>
+        <v>545.91999999999996</v>
       </c>
       <c r="C22" s="1">
         <v>302.42</v>
@@ -1546,12 +950,12 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>43392</v>
       </c>
       <c r="B23" s="1">
-        <v>599.58</v>
+        <v>599.58000000000004</v>
       </c>
       <c r="C23" s="1">
         <v>315.06</v>
@@ -1566,7 +970,7 @@
         <v>241.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>43399</v>
       </c>
@@ -1574,7 +978,7 @@
         <v>617.29</v>
       </c>
       <c r="C24" s="1">
-        <v>319.04</v>
+        <v>319.04000000000002</v>
       </c>
       <c r="D24" s="1">
         <v>40.85</v>
@@ -1586,7 +990,7 @@
         <v>246.97</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>43406</v>
       </c>
@@ -1600,18 +1004,18 @@
         <v>31.92</v>
       </c>
       <c r="E25" s="1">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="F25" s="1">
         <v>219.82</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>43413</v>
       </c>
       <c r="B26" s="1">
-        <v>581.57</v>
+        <v>581.57000000000005</v>
       </c>
       <c r="C26" s="1">
         <v>318.98</v>
@@ -1620,18 +1024,18 @@
         <v>50.66</v>
       </c>
       <c r="E26" s="1">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="F26" s="1">
         <v>194.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>43420</v>
       </c>
       <c r="B27" s="1">
-        <v>562.18</v>
+        <v>562.17999999999995</v>
       </c>
       <c r="C27" s="1">
         <v>317.51</v>
@@ -1646,7 +1050,7 @@
         <v>179.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>43427</v>
       </c>
@@ -1654,7 +1058,7 @@
         <v>559.24</v>
       </c>
       <c r="C28" s="1">
-        <v>327.41</v>
+        <v>327.41000000000003</v>
       </c>
       <c r="D28" s="1">
         <v>52.9</v>
@@ -1666,7 +1070,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>43434</v>
       </c>
@@ -1680,18 +1084,18 @@
         <v>55.8</v>
       </c>
       <c r="E29" s="1">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F29" s="1">
         <v>153.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>43441</v>
       </c>
       <c r="B30" s="1">
-        <v>608.7</v>
+        <v>608.70000000000005</v>
       </c>
       <c r="C30" s="1">
         <v>388</v>
@@ -1706,12 +1110,12 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>43448</v>
       </c>
       <c r="B31" s="1">
-        <v>637.55</v>
+        <v>637.54999999999995</v>
       </c>
       <c r="C31" s="1">
         <v>443.75</v>
@@ -1720,13 +1124,13 @@
         <v>70.2</v>
       </c>
       <c r="E31" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F31" s="1">
         <v>107.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>43455</v>
       </c>
@@ -1746,7 +1150,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>43462</v>
       </c>
@@ -1763,10 +1167,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>79.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>79.040000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>43469</v>
       </c>
@@ -1780,13 +1184,13 @@
         <v>97.77</v>
       </c>
       <c r="E34" s="1">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F34" s="1">
         <v>52.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>43476</v>
       </c>
@@ -1806,7 +1210,7 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>43483</v>
       </c>
@@ -1826,7 +1230,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>43490</v>
       </c>
@@ -1846,7 +1250,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>43497</v>
       </c>
@@ -1866,7 +1270,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>43511</v>
       </c>
@@ -1880,13 +1284,13 @@
         <v>82.1</v>
       </c>
       <c r="E39" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F39" s="1">
         <v>46.98</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>43518</v>
       </c>
@@ -1894,10 +1298,10 @@
         <v>702.6</v>
       </c>
       <c r="C40" s="1">
-        <v>566.92</v>
+        <v>566.91999999999996</v>
       </c>
       <c r="D40" s="1">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E40" s="1">
         <v>12.6</v>
@@ -1906,7 +1310,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>43525</v>
       </c>
@@ -1926,7 +1330,7 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>43532</v>
       </c>
@@ -1946,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>43539</v>
       </c>
@@ -1966,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43546</v>
       </c>
@@ -1974,10 +1378,10 @@
         <v>713</v>
       </c>
       <c r="C44" s="1">
-        <v>595.8</v>
+        <v>595.79999999999995</v>
       </c>
       <c r="D44" s="1">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E44" s="1">
         <v>16.3</v>
@@ -1986,7 +1390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>43553</v>
       </c>
@@ -1994,7 +1398,7 @@
         <v>732.65</v>
       </c>
       <c r="C45" s="1">
-        <v>608.95</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="D45" s="1">
         <v>65.2</v>
@@ -2006,7 +1410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>43560</v>
       </c>
@@ -2026,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>43567</v>
       </c>
@@ -2034,7 +1438,7 @@
         <v>700.98</v>
       </c>
       <c r="C47" s="1">
-        <v>584.83</v>
+        <v>584.83000000000004</v>
       </c>
       <c r="D47" s="1">
         <v>72.75</v>
@@ -2046,7 +1450,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>43574</v>
       </c>
@@ -2054,7 +1458,7 @@
         <v>672.83</v>
       </c>
       <c r="C48" s="1">
-        <v>562.58</v>
+        <v>562.58000000000004</v>
       </c>
       <c r="D48" s="1">
         <v>73.2</v>
@@ -2066,7 +1470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>43581</v>
       </c>
@@ -2086,7 +1490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>43588</v>
       </c>
@@ -2106,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f>A50+7</f>
         <v>43595</v>
@@ -2121,13 +1525,13 @@
         <v>83.15</v>
       </c>
       <c r="E51" s="1">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F51" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f>A51+7</f>
         <v>43602</v>
@@ -2148,13 +1552,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f>A52+7</f>
         <v>43609</v>
       </c>
       <c r="B53" s="1">
-        <v>552.2</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="C53" s="1">
         <v>398.55</v>
@@ -2163,13 +1567,13 @@
         <v>82.1</v>
       </c>
       <c r="E53" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F53" s="1">
         <v>35.75</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f>A53+7</f>
         <v>43616</v>
@@ -2187,15 +1591,15 @@
         <v>47.9</v>
       </c>
       <c r="F54" s="1">
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43622</v>
       </c>
       <c r="B55" s="1">
-        <v>594.92</v>
+        <v>594.91999999999996</v>
       </c>
       <c r="C55" s="1">
         <v>351.52</v>
@@ -2210,8 +1614,8 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:7">
-      <c r="A56" s="4">
+    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
         <v>43630</v>
       </c>
       <c r="B56" s="1">
@@ -2231,8 +1635,8 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
         <v>43637</v>
       </c>
       <c r="B57" s="1">
@@ -2248,11 +1652,11 @@
         <v>38.15</v>
       </c>
       <c r="F57" s="1">
-        <v>151.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
         <v>43644</v>
       </c>
       <c r="B58" s="1">
@@ -2271,12 +1675,12 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
         <v>43651</v>
       </c>
       <c r="B59" s="1">
-        <v>645.95</v>
+        <v>645.95000000000005</v>
       </c>
       <c r="C59" s="1">
         <v>362.83</v>
@@ -2291,8 +1695,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
         <v>43658</v>
       </c>
       <c r="B60" s="1">
@@ -2311,12 +1715,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
         <v>43665</v>
       </c>
       <c r="B61" s="1">
-        <v>629.19</v>
+        <v>629.19000000000005</v>
       </c>
       <c r="C61" s="1">
         <v>375.17</v>
@@ -2328,11 +1732,11 @@
         <v>45.92</v>
       </c>
       <c r="F61" s="1">
-        <v>147.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="4">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
         <v>43672</v>
       </c>
       <c r="B62" s="1">
@@ -2345,18 +1749,18 @@
         <v>59.9</v>
       </c>
       <c r="E62" s="1">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="F62" s="1">
-        <v>134.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="4">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
         <v>43679</v>
       </c>
       <c r="B63" s="1">
-        <v>569.08</v>
+        <v>569.08000000000004</v>
       </c>
       <c r="C63" s="1">
         <v>353.5</v>
@@ -2371,12 +1775,12 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
         <v>43686</v>
       </c>
       <c r="B64" s="1">
-        <v>551.06</v>
+        <v>551.05999999999995</v>
       </c>
       <c r="C64" s="1">
         <v>363.36</v>
@@ -2391,8 +1795,8 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
         <v>43693</v>
       </c>
       <c r="B65" s="1">
@@ -2411,8 +1815,8 @@
         <v>113.75</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>43700</v>
       </c>
       <c r="B66" s="1">
@@ -2431,8 +1835,8 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
         <v>43707</v>
       </c>
       <c r="B67" s="1">
@@ -2445,14 +1849,14 @@
         <v>50.4</v>
       </c>
       <c r="E67" s="1">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F67" s="1">
         <v>93.55</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
         <v>43714</v>
       </c>
       <c r="B68" s="1">
@@ -2471,8 +1875,8 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
         <v>43721</v>
       </c>
       <c r="B69" s="1">
@@ -2488,11 +1892,11 @@
         <v>45.8</v>
       </c>
       <c r="F69" s="1">
-        <v>70.35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="4">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
         <v>43728</v>
       </c>
       <c r="B70" s="1">
@@ -2502,7 +1906,7 @@
         <v>329.97</v>
       </c>
       <c r="D70" s="1">
-        <v>32.34</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="E70" s="1">
         <v>29.6</v>
@@ -2512,8 +1916,8 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
         <v>43735</v>
       </c>
       <c r="B71" s="1">
@@ -2532,8 +1936,8 @@
         <v>69.86</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
         <v>43742</v>
       </c>
       <c r="B72" s="1">
@@ -2546,15 +1950,15 @@
         <v>30</v>
       </c>
       <c r="E72" s="1">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F72" s="1">
         <v>62.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="4">
-        <f>A72+7</f>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <f t="shared" ref="A73:A79" si="0">A72+7</f>
         <v>43749</v>
       </c>
       <c r="B73" s="1">
@@ -2573,9 +1977,9 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="4">
-        <f>A73+7</f>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <f t="shared" si="0"/>
         <v>43756</v>
       </c>
       <c r="B74" s="1">
@@ -2594,9 +1998,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="4">
-        <f>A74+7</f>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <f t="shared" si="0"/>
         <v>43763</v>
       </c>
       <c r="B75" s="1">
@@ -2615,9 +2019,9 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="4">
-        <f>A75+7</f>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <f t="shared" si="0"/>
         <v>43770</v>
       </c>
       <c r="B76" s="1">
@@ -2636,9 +2040,9 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4">
-        <f>A76+7</f>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <f t="shared" si="0"/>
         <v>43777</v>
       </c>
       <c r="B77" s="1">
@@ -2648,18 +2052,191 @@
         <v>282.99</v>
       </c>
       <c r="D77" s="1">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E77" s="1">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F77" s="1">
         <v>21.1</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <f t="shared" si="0"/>
+        <v>43784</v>
+      </c>
+      <c r="B78" s="1">
+        <v>340.5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="D78" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="E78" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="F78" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <f t="shared" si="0"/>
+        <v>43791</v>
+      </c>
+      <c r="B79" s="1">
+        <v>353.25</v>
+      </c>
+      <c r="C79" s="1">
+        <v>311.35000000000002</v>
+      </c>
+      <c r="D79" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E79" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <f>A79+7</f>
+        <v>43798</v>
+      </c>
+      <c r="B80" s="1">
+        <v>378.1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>340.6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <f>A80+7</f>
+        <v>43805</v>
+      </c>
+      <c r="B81" s="1">
+        <f>C81+D81+E81+F81</f>
+        <v>413.55</v>
+      </c>
+      <c r="C81" s="1">
+        <v>369.95</v>
+      </c>
+      <c r="D81" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <f>A81+7</f>
+        <v>43812</v>
+      </c>
+      <c r="B82" s="1">
+        <f>C82+D82+E82+F82</f>
+        <v>440.16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>399.86</v>
+      </c>
+      <c r="D82" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <f>A82+7</f>
+        <v>43819</v>
+      </c>
+      <c r="B83" s="1">
+        <f>C83+D83+E83+F83</f>
+        <v>473.26</v>
+      </c>
+      <c r="C83" s="1">
+        <v>420.86</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <f t="shared" ref="A84:A85" si="1">A83+7</f>
+        <v>43826</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" ref="B84:B85" si="2">C84+D84+E84+F84</f>
+        <v>510.81</v>
+      </c>
+      <c r="C84" s="1">
+        <v>448.81</v>
+      </c>
+      <c r="D84" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>43833</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="2"/>
+        <v>573.31000000000006</v>
+      </c>
+      <c r="C85" s="1">
+        <v>492.31</v>
+      </c>
+      <c r="D85" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>